--- a/DATA_goal/Junction_Flooding_249.xlsx
+++ b/DATA_goal/Junction_Flooding_249.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>41681.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>23.16</v>
+        <v>2.32</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>16</v>
+        <v>1.6</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.23</v>
+        <v>0.42</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>48.77</v>
+        <v>4.88</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>40.35</v>
+        <v>4.03</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>18.22</v>
+        <v>1.82</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>60.55</v>
+        <v>6.06</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>28.04</v>
+        <v>2.8</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>11.94</v>
+        <v>1.19</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>18.4</v>
+        <v>1.84</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>19.29</v>
+        <v>1.93</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>20.24</v>
+        <v>2.02</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>5.82</v>
+        <v>0.58</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>18.12</v>
+        <v>1.81</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>25.51</v>
+        <v>2.55</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>15.12</v>
+        <v>1.51</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.8</v>
+        <v>0.38</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.46</v>
+        <v>0.25</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>268.49</v>
+        <v>26.85</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>50.47</v>
+        <v>5.05</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>16.73</v>
+        <v>1.67</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>33.54</v>
+        <v>3.35</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>17.47</v>
+        <v>1.75</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.22</v>
+        <v>0.22</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>30.08</v>
+        <v>3.01</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>14.77</v>
+        <v>1.48</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>13.25</v>
+        <v>1.32</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>15.5</v>
+        <v>1.55</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>19.98</v>
+        <v>2</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.64</v>
+        <v>0.36</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>53.52</v>
+        <v>5.35</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>9.33</v>
+        <v>0.93</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>20.91</v>
+        <v>2.09</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41681.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>17.39</v>
+        <v>1.74</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>12.38</v>
+        <v>1.24</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.85</v>
+        <v>0.18</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>37.2</v>
+        <v>3.72</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>30.79</v>
+        <v>3.08</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>13.69</v>
+        <v>1.37</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>54.15</v>
+        <v>5.42</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>21.06</v>
+        <v>2.11</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>9.15</v>
+        <v>0.91</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>13.84</v>
+        <v>1.38</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>14.93</v>
+        <v>1.49</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>15.6</v>
+        <v>1.56</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>4.37</v>
+        <v>0.44</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>13.61</v>
+        <v>1.36</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>19.24</v>
+        <v>1.92</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>11.57</v>
+        <v>1.16</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.64</v>
+        <v>0.16</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>1.08</v>
+        <v>0.11</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>199.84</v>
+        <v>19.98</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>38.11</v>
+        <v>3.81</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>12.56</v>
+        <v>1.26</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>25.38</v>
+        <v>2.54</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>13.52</v>
+        <v>1.35</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.66</v>
+        <v>0.17</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>25.93</v>
+        <v>2.59</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>11.1</v>
+        <v>1.11</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>9.99</v>
+        <v>1</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>11.71</v>
+        <v>1.17</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>15.57</v>
+        <v>1.56</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.29</v>
+        <v>0.13</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>48.95</v>
+        <v>4.9</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>7.01</v>
+        <v>0.7</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>15.71</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41681.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>3.3</v>
+        <v>0.33</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.09</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>10.46</v>
+        <v>1.05</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>8.67</v>
+        <v>0.87</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>3.93</v>
+        <v>0.39</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>20.54</v>
+        <v>2.05</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>6.05</v>
+        <v>0.6</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>2.55</v>
+        <v>0.26</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>3.83</v>
+        <v>0.38</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>4.25</v>
+        <v>0.43</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>4.32</v>
+        <v>0.43</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.26</v>
+        <v>0.13</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>3.91</v>
+        <v>0.39</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>5.5</v>
+        <v>0.55</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>3.51</v>
+        <v>0.35</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.99</v>
+        <v>0.1</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.47</v>
+        <v>0.05</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>52.24</v>
+        <v>5.22</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>11.2</v>
+        <v>1.12</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>3.61</v>
+        <v>0.36</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>7.31</v>
+        <v>0.73</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>3.98</v>
+        <v>0.4</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.41</v>
+        <v>0.04</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>9.199999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>3.19</v>
+        <v>0.32</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>2.99</v>
+        <v>0.3</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>3.48</v>
+        <v>0.35</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>4.39</v>
+        <v>0.44</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.78</v>
+        <v>0.08</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>18.77</v>
+        <v>1.88</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>1.93</v>
+        <v>0.19</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>4.51</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41681.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>23.64</v>
+        <v>2.36</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>17.42</v>
+        <v>1.74</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.35</v>
+        <v>0.13</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>51.11</v>
+        <v>5.11</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>42.28</v>
+        <v>4.23</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>18.6</v>
+        <v>1.86</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>68.26000000000001</v>
+        <v>6.83</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>28.62</v>
+        <v>2.86</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>12.69</v>
+        <v>1.27</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>19.02</v>
+        <v>1.9</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>20.59</v>
+        <v>2.06</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>21.61</v>
+        <v>2.16</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>5.94</v>
+        <v>0.59</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>18.5</v>
+        <v>1.85</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>26.31</v>
+        <v>2.63</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>15.55</v>
+        <v>1.55</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.9</v>
+        <v>0.09</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.92</v>
+        <v>0.09</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>274.23</v>
+        <v>27.42</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>51.63</v>
+        <v>5.16</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>17.07</v>
+        <v>1.71</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>34.73</v>
+        <v>3.47</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>18.45</v>
+        <v>1.84</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.33</v>
+        <v>0.23</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>33.66</v>
+        <v>3.37</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>15.08</v>
+        <v>1.51</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>13.38</v>
+        <v>1.34</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>15.72</v>
+        <v>1.57</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>21.57</v>
+        <v>2.16</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>61.61</v>
+        <v>6.16</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>9.630000000000001</v>
+        <v>0.96</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>21.35</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41681.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>14.03</v>
+        <v>1.4</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>10.27</v>
+        <v>1.03</v>
       </c>
       <c r="D6" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>15.98</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AA6" s="4" t="n">
         <v>0.9</v>
       </c>
-      <c r="E6" s="4" t="n">
-        <v>30.27</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>25.04</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>11.04</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>45.49</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>16.99</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>7.52</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>11.24</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>12.23</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>12.78</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>3.53</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>10.98</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>15.61</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>159.79</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>30.79</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>10.13</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>20.64</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>10.99</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>21.68</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>8.949999999999999</v>
-      </c>
       <c r="AB6" s="4" t="n">
-        <v>7.97</v>
+        <v>0.8</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>9.359999999999999</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>12.79</v>
+        <v>1.28</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.44</v>
+        <v>0.04</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>41.31</v>
+        <v>4.13</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>5.69</v>
+        <v>0.57</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>12.67</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41681.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>14.22</v>
+        <v>1.42</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>10.46</v>
+        <v>1.05</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.83</v>
+        <v>0.08</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>30.73</v>
+        <v>3.07</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>25.42</v>
+        <v>2.54</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>11.19</v>
+        <v>1.12</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>44.16</v>
+        <v>4.42</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>17.22</v>
+        <v>1.72</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>7.63</v>
+        <v>0.76</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>11.41</v>
+        <v>1.14</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>12.42</v>
+        <v>1.24</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>12.98</v>
+        <v>1.3</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>3.57</v>
+        <v>0.36</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>11.13</v>
+        <v>1.11</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>15.83</v>
+        <v>1.58</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>9.390000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="R7" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="S7" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="T7" s="4" t="n">
+        <v>16.21</v>
+      </c>
+      <c r="U7" s="4" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="V7" s="4" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="W7" s="4" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="X7" s="4" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Y7" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="Z7" s="4" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AA7" s="4" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AB7" s="4" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AC7" s="4" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AD7" s="4" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AE7" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AF7" s="4" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="AG7" s="4" t="n">
         <v>0.58</v>
       </c>
-      <c r="S7" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>162.06</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>31.13</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>10.27</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>11.13</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>21.23</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>9.07</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>8.06</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>9.470000000000001</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>12.99</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>39.94</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>5.78</v>
-      </c>
       <c r="AH7" s="4" t="n">
-        <v>12.84</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41681.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>22.58</v>
+        <v>2.26</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>16.77</v>
+        <v>1.68</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>1.06</v>
+        <v>0.11</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>48.94</v>
+        <v>4.89</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>40.47</v>
+        <v>4.05</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>17.77</v>
+        <v>1.78</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>67.78</v>
+        <v>6.78</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>27.34</v>
+        <v>2.73</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>12.2</v>
+        <v>1.22</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>18.22</v>
+        <v>1.82</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>19.72</v>
+        <v>1.97</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>20.72</v>
+        <v>2.07</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>5.68</v>
+        <v>0.57</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>17.67</v>
+        <v>1.77</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>25.2</v>
+        <v>2.52</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>14.79</v>
+        <v>1.48</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.58</v>
+        <v>0.06</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.78</v>
+        <v>0.08</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>261.65</v>
+        <v>26.16</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>49.39</v>
+        <v>4.94</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>16.31</v>
+        <v>1.63</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>33.31</v>
+        <v>3.33</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>17.63</v>
+        <v>1.76</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>2.25</v>
+        <v>0.23</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>33.13</v>
+        <v>3.31</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>14.41</v>
+        <v>1.44</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>12.73</v>
+        <v>1.27</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>14.96</v>
+        <v>1.5</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>20.68</v>
+        <v>2.07</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>61.4</v>
+        <v>6.14</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>9.23</v>
+        <v>0.92</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>20.39</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41681.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>16.14</v>
+        <v>1.61</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>11.96</v>
+        <v>1.2</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.8</v>
+        <v>0.08</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>34.96</v>
+        <v>3.5</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>28.91</v>
+        <v>2.89</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>12.7</v>
+        <v>1.27</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>51.36</v>
+        <v>5.14</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>19.55</v>
+        <v>1.95</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>8.710000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>13</v>
+        <v>1.3</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>14.11</v>
+        <v>1.41</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>14.79</v>
+        <v>1.48</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>4.06</v>
+        <v>0.41</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>12.63</v>
+        <v>1.26</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>18.01</v>
+        <v>1.8</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>10.6</v>
+        <v>1.06</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.47</v>
+        <v>0.05</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.57</v>
+        <v>0.06</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>184.97</v>
+        <v>18.5</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>35.38</v>
+        <v>3.54</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>11.66</v>
+        <v>1.17</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>23.83</v>
+        <v>2.38</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>12.62</v>
+        <v>1.26</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>1.6</v>
+        <v>0.16</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>24.63</v>
+        <v>2.46</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>10.3</v>
+        <v>1.03</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>9.109999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>10.71</v>
+        <v>1.07</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>14.78</v>
+        <v>1.48</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>46.61</v>
+        <v>4.66</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>6.59</v>
+        <v>0.66</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>14.58</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41681.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>2.88</v>
+        <v>0.29</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>2.02</v>
+        <v>0.2</v>
       </c>
       <c r="D10" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E10" s="4" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F10" s="4" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="G10" s="4" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H10" s="4" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="I10" s="4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="J10" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="K10" s="4" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="L10" s="4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="M10" s="4" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="N10" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="O10" s="4" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="P10" s="4" t="n">
         <v>0.33</v>
       </c>
-      <c r="E10" s="4" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>15.19</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>3.49</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>3.3</v>
-      </c>
       <c r="Q10" s="4" t="n">
-        <v>1.99</v>
+        <v>0.2</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.32</v>
+        <v>0.03</v>
       </c>
       <c r="S10" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="T10" s="4" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="U10" s="4" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="V10" s="4" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="W10" s="4" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="X10" s="4" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="Y10" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Z10" s="4" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="AA10" s="4" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="AB10" s="4" t="n">
         <v>0.17</v>
       </c>
-      <c r="T10" s="4" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>4.52</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>6.76</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>1.69</v>
-      </c>
       <c r="AC10" s="4" t="n">
-        <v>1.97</v>
+        <v>0.2</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>2.62</v>
+        <v>0.26</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>14.19</v>
+        <v>1.42</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>1.13</v>
+        <v>0.11</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>2.61</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_249.xlsx
+++ b/DATA_goal/Junction_Flooding_249.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,8 +446,8 @@
     <col width="6" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="6" customWidth="1" min="5" max="5"/>
+    <col width="6" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="6" customWidth="1" min="9" max="9"/>
@@ -462,7 +462,7 @@
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="6" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
     <col width="6" customWidth="1" min="23" max="23"/>
     <col width="6" customWidth="1" min="24" max="24"/>
@@ -652,1042 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>41681.34027777778</v>
+        <v>44930.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>2.32</v>
+        <v>1.73</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.6</v>
+        <v>1.14</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.42</v>
+        <v>0.4</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>4.88</v>
+        <v>3.68</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>4.03</v>
+        <v>2.89</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.82</v>
+        <v>1.36</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>6.06</v>
+        <v>4.21</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.8</v>
+        <v>2.09</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>1.19</v>
+        <v>0.86</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.84</v>
+        <v>1.28</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.93</v>
+        <v>1.45</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>2.02</v>
+        <v>1.5</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.58</v>
+        <v>0.43</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.81</v>
+        <v>1.35</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.55</v>
+        <v>1.88</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.51</v>
+        <v>1.17</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.38</v>
+        <v>0.34</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>26.85</v>
+        <v>19.86</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>5.05</v>
+        <v>3.76</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>3.35</v>
+        <v>2.45</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.75</v>
+        <v>1.24</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.22</v>
+        <v>0.31</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>3.01</v>
+        <v>2.15</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.48</v>
+        <v>1.1</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>1.32</v>
+        <v>1.01</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.55</v>
+        <v>1.18</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>5.35</v>
+        <v>3.76</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.93</v>
+        <v>0.68</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>2.09</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>41681.34722222222</v>
+        <v>44930.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.74</v>
+        <v>0.53</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.24</v>
+        <v>0.32</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.18</v>
+        <v>0.14</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>3.72</v>
+        <v>1.13</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>3.08</v>
+        <v>0.85</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.37</v>
+        <v>0.42</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>5.42</v>
+        <v>1.95</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.11</v>
+        <v>0.64</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.91</v>
+        <v>0.26</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.38</v>
+        <v>0.35</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.49</v>
+        <v>0.45</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.56</v>
+        <v>0.46</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.44</v>
+        <v>0.13</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.36</v>
+        <v>0.41</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.92</v>
+        <v>0.57</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.16</v>
+        <v>0.39</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>19.98</v>
+        <v>5.57</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>3.81</v>
+        <v>1.18</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.26</v>
+        <v>0.38</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>2.54</v>
+        <v>0.75</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.35</v>
+        <v>0.37</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.17</v>
+        <v>0.12</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>2.59</v>
+        <v>0.92</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.11</v>
+        <v>0.34</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1</v>
+        <v>0.32</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.17</v>
+        <v>0.38</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.56</v>
+        <v>0.46</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>4.9</v>
+        <v>1.83</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.7</v>
+        <v>0.19</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.57</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>41681.35416666666</v>
+        <v>44930.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.5</v>
+        <v>1.01</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1.05</v>
+        <v>2.19</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0.87</v>
+        <v>1.74</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.39</v>
+        <v>0.79</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>2.05</v>
+        <v>2.94</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.6</v>
+        <v>1.22</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.26</v>
+        <v>0.53</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.38</v>
+        <v>0.77</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.43</v>
+        <v>0.88</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.43</v>
+        <v>0.92</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.13</v>
+        <v>0.25</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.39</v>
+        <v>0.79</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.55</v>
+        <v>1.11</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.35</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="R4" s="4" t="n">
         <v>0.1</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>5.22</v>
+        <v>11.28</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>1.12</v>
+        <v>2.2</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.36</v>
+        <v>0.73</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0.73</v>
+        <v>1.45</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.4</v>
+        <v>0.76</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.15</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>0.92</v>
+        <v>1.42</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.32</v>
+        <v>0.64</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.3</v>
+        <v>0.58</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.35</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.44</v>
+        <v>0.91</v>
       </c>
       <c r="AE4" s="4" t="n">
         <v>0.08</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>1.88</v>
+        <v>2.66</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.19</v>
+        <v>0.4</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.45</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>41681.36111111111</v>
+        <v>44930.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>2.36</v>
+        <v>1.59</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.74</v>
+        <v>1.16</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>5.11</v>
+        <v>3.44</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>4.23</v>
+        <v>2.8</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.86</v>
+        <v>1.25</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>6.83</v>
+        <v>4.67</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.86</v>
+        <v>1.92</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.27</v>
+        <v>0.85</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.9</v>
+        <v>1.25</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>2.06</v>
+        <v>1.38</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>2.16</v>
+        <v>1.45</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.59</v>
+        <v>0.4</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.85</v>
+        <v>1.24</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>2.63</v>
+        <v>1.76</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.55</v>
+        <v>1.06</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>27.42</v>
+        <v>18.15</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>5.16</v>
+        <v>3.47</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.71</v>
+        <v>1.15</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>3.47</v>
+        <v>2.32</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.84</v>
+        <v>1.21</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.23</v>
+        <v>0.2</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>3.37</v>
+        <v>2.29</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.51</v>
+        <v>1.01</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.34</v>
+        <v>0.9</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.57</v>
+        <v>1.06</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>2.16</v>
+        <v>1.45</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0.06</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>6.16</v>
+        <v>4.24</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.96</v>
+        <v>0.64</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>2.13</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>41681.36805555555</v>
+        <v>44930.53471064815</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>1.03</v>
+        <v>1.53</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.09</v>
+        <v>0.51</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>3.03</v>
+        <v>5.2</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>2.5</v>
+        <v>3.86</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>1.1</v>
+        <v>1.89</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>4.55</v>
+        <v>13.43</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>1.7</v>
+        <v>2.91</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>0.75</v>
+        <v>1.28</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>1.12</v>
+        <v>1.6</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>1.22</v>
+        <v>2.09</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>1.28</v>
+        <v>2.15</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>0.35</v>
+        <v>0.62</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>1.1</v>
+        <v>1.88</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>1.56</v>
+        <v>2.72</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>0.93</v>
+        <v>1.79</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.55</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.06</v>
+        <v>0.25</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>15.98</v>
+        <v>21.39</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>3.08</v>
+        <v>5.68</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>1.01</v>
+        <v>1.74</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>2.06</v>
+        <v>3.74</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>1.1</v>
+        <v>1.82</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.14</v>
+        <v>0.51</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>2.17</v>
+        <v>6.04</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>0.9</v>
+        <v>1.53</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>0.8</v>
+        <v>1.48</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.71</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>1.28</v>
+        <v>2.16</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.04</v>
+        <v>0.43</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>4.13</v>
+        <v>12.82</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>1.27</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>41681.375</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>16.21</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>1.28</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>41681.38194444445</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>4.89</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>6.78</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>2.73</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>26.16</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>4.94</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>3.33</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>3.31</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>6.14</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>2.04</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>41681.38888888889</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>2.89</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>5.14</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>3.54</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>1.46</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>41681.39583333334</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>41681.4027662037</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>12.62</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>10.44</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>17.76</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>4.67</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>5.14</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>4.59</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>6.47</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>62.45</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>12.74</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>8.49</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>4.59</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>8.369999999999999</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>3.74</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>5.36</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>15.84</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>5.29</v>
+        <v>2.18</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_249.xlsx
+++ b/DATA_goal/Junction_Flooding_249.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44930.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.73</v>
+        <v>17.3</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.14</v>
+        <v>11.41</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.4</v>
+        <v>3.99</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>3.68</v>
+        <v>36.82</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>2.89</v>
+        <v>28.93</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.36</v>
+        <v>13.61</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>4.21</v>
+        <v>42.1</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.09</v>
+        <v>20.94</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.86</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.28</v>
+        <v>12.85</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.45</v>
+        <v>14.48</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.5</v>
+        <v>15.03</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.43</v>
+        <v>4.34</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.35</v>
+        <v>13.53</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.88</v>
+        <v>18.8</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.17</v>
+        <v>11.72</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.34</v>
+        <v>3.39</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.22</v>
+        <v>2.23</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>19.86</v>
+        <v>198.65</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>3.76</v>
+        <v>37.58</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.25</v>
+        <v>12.49</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>2.45</v>
+        <v>24.54</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.24</v>
+        <v>12.43</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.31</v>
+        <v>3.15</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>2.15</v>
+        <v>21.51</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.1</v>
+        <v>11.03</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>1.01</v>
+        <v>10.06</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.18</v>
+        <v>11.83</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.5</v>
+        <v>15.03</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.33</v>
+        <v>3.32</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>3.76</v>
+        <v>37.61</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.68</v>
+        <v>6.76</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.56</v>
+        <v>15.62</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44930.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.53</v>
+        <v>5.28</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.32</v>
+        <v>3.25</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.14</v>
+        <v>1.44</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>1.13</v>
+        <v>11.33</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.85</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.42</v>
+        <v>4.16</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>1.95</v>
+        <v>19.52</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.64</v>
+        <v>6.4</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.26</v>
+        <v>2.57</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.35</v>
+        <v>3.55</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.45</v>
+        <v>4.5</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.46</v>
+        <v>4.59</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.34</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.41</v>
+        <v>4.14</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.57</v>
+        <v>5.7</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.39</v>
+        <v>3.88</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.14</v>
+        <v>1.44</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.08</v>
+        <v>0.76</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>5.57</v>
+        <v>55.66</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>1.18</v>
+        <v>11.81</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.38</v>
+        <v>3.82</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0.75</v>
+        <v>7.5</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.37</v>
+        <v>3.74</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.21</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0.92</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.34</v>
+        <v>3.37</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.32</v>
+        <v>3.24</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.38</v>
+        <v>3.78</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.46</v>
+        <v>4.61</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.25</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>1.83</v>
+        <v>18.32</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.19</v>
+        <v>1.94</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.48</v>
+        <v>4.77</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44930.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.01</v>
+        <v>10.09</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.71</v>
+        <v>7.11</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.11</v>
+        <v>1.11</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>2.19</v>
+        <v>21.88</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.74</v>
+        <v>17.42</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.79</v>
+        <v>7.94</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>2.94</v>
+        <v>29.36</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.22</v>
+        <v>12.22</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.53</v>
+        <v>5.25</v>
       </c>
       <c r="K4" s="4" t="n">
+        <v>7.65</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>8.77</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>9.17</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>11.08</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>6.88</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>112.82</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>22</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>7.29</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>14.51</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>7.58</v>
+      </c>
+      <c r="Y4" s="4" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="Z4" s="4" t="n">
+        <v>14.24</v>
+      </c>
+      <c r="AA4" s="4" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="AB4" s="4" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="AC4" s="4" t="n">
+        <v>6.85</v>
+      </c>
+      <c r="AD4" s="4" t="n">
+        <v>9.140000000000001</v>
+      </c>
+      <c r="AE4" s="4" t="n">
         <v>0.77</v>
       </c>
-      <c r="L4" s="4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="S4" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="T4" s="4" t="n">
-        <v>11.28</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="Z4" s="4" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="AA4" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="AB4" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="AC4" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="AD4" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="AE4" s="4" t="n">
-        <v>0.08</v>
-      </c>
       <c r="AF4" s="4" t="n">
-        <v>2.66</v>
+        <v>26.58</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.4</v>
+        <v>3.98</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.91</v>
+        <v>9.109999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44930.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.59</v>
+        <v>15.85</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.16</v>
+        <v>11.56</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.11</v>
+        <v>1.09</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>3.44</v>
+        <v>34.45</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2.8</v>
+        <v>27.95</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.25</v>
+        <v>12.48</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>4.67</v>
+        <v>46.67</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.92</v>
+        <v>19.2</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.85</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.25</v>
+        <v>12.46</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.38</v>
+        <v>13.82</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.45</v>
+        <v>14.55</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.4</v>
+        <v>3.98</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.24</v>
+        <v>12.41</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.76</v>
+        <v>17.59</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.06</v>
+        <v>10.55</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.8</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>18.15</v>
+        <v>181.51</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>3.47</v>
+        <v>34.66</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.15</v>
+        <v>11.45</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.32</v>
+        <v>23.18</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.21</v>
+        <v>12.15</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.2</v>
+        <v>1.96</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>2.29</v>
+        <v>22.91</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.01</v>
+        <v>10.12</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.9</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.06</v>
+        <v>10.6</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.45</v>
+        <v>14.48</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.55</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>4.24</v>
+        <v>42.4</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.64</v>
+        <v>6.39</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.43</v>
+        <v>14.32</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_249.xlsx
+++ b/DATA_goal/Junction_Flooding_249.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44930.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>17.3</v>
+        <v>17.295</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>11.41</v>
+        <v>11.407</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.99</v>
+        <v>3.988</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>36.82</v>
+        <v>36.822</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>28.93</v>
+        <v>28.934</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>13.61</v>
+        <v>13.611</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>42.1</v>
+        <v>42.104</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>20.94</v>
+        <v>20.942</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>8.630000000000001</v>
+        <v>8.632</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>12.85</v>
+        <v>12.848</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>14.48</v>
+        <v>14.482</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>15.03</v>
+        <v>15.027</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>4.34</v>
+        <v>4.344</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>13.53</v>
+        <v>13.535</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>18.8</v>
+        <v>18.799</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>11.72</v>
+        <v>11.717</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.39</v>
+        <v>3.386</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.23</v>
+        <v>2.226</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>198.65</v>
+        <v>198.649</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>37.58</v>
+        <v>37.584</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>12.49</v>
+        <v>12.493</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>24.54</v>
+        <v>24.537</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>12.43</v>
+        <v>12.435</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>3.15</v>
+        <v>3.148</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>21.51</v>
+        <v>21.511</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>11.03</v>
+        <v>11.035</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>10.06</v>
+        <v>10.064</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>11.83</v>
+        <v>11.833</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>15.03</v>
+        <v>15.025</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.32</v>
+        <v>3.317</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>37.61</v>
+        <v>37.614</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>6.76</v>
+        <v>6.758</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>15.62</v>
+        <v>15.619</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44930.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>5.28</v>
+        <v>5.285</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>3.25</v>
+        <v>3.246</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.44</v>
+        <v>1.439</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>11.33</v>
+        <v>11.332</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>8.449999999999999</v>
+        <v>8.451000000000001</v>
       </c>
       <c r="G3" s="4" t="n">
         <v>4.16</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>19.52</v>
+        <v>19.524</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>6.4</v>
+        <v>6.399</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>2.57</v>
+        <v>2.572</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>3.55</v>
+        <v>3.546</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>4.5</v>
+        <v>4.501</v>
       </c>
       <c r="M3" s="4" t="n">
         <v>4.59</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.34</v>
+        <v>1.336</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>4.14</v>
+        <v>4.136</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>5.7</v>
+        <v>5.701</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>3.88</v>
+        <v>3.876</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.44</v>
+        <v>1.436</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.76</v>
+        <v>0.756</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>55.66</v>
+        <v>55.665</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>11.81</v>
+        <v>11.812</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>3.82</v>
+        <v>3.817</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>7.5</v>
+        <v>7.499</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>3.74</v>
+        <v>3.735</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.21</v>
+        <v>1.209</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>9.199999999999999</v>
+        <v>9.201000000000001</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>3.37</v>
+        <v>3.372</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>3.24</v>
+        <v>3.242</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>3.78</v>
+        <v>3.778</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>4.61</v>
+        <v>4.607</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.25</v>
+        <v>1.247</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>18.32</v>
+        <v>18.321</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>1.94</v>
+        <v>1.941</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>4.77</v>
+        <v>4.774</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44930.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>10.09</v>
+        <v>10.089</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>7.11</v>
+        <v>7.111</v>
       </c>
       <c r="D4" s="4" t="n">
         <v>1.11</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>21.88</v>
+        <v>21.877</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>17.42</v>
+        <v>17.416</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>7.94</v>
+        <v>7.939</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>29.36</v>
+        <v>29.356</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>12.22</v>
+        <v>12.216</v>
       </c>
       <c r="J4" s="4" t="n">
         <v>5.25</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>7.65</v>
+        <v>7.655</v>
       </c>
       <c r="L4" s="4" t="n">
         <v>8.77</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>9.17</v>
+        <v>9.167</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.53</v>
+        <v>2.534</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>7.9</v>
+        <v>7.895</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>11.08</v>
+        <v>11.076</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>6.88</v>
+        <v>6.885</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.98</v>
+        <v>0.984</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.64</v>
+        <v>0.644</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>112.82</v>
+        <v>112.825</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>22</v>
+        <v>22.004</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>7.29</v>
+        <v>7.288</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>14.51</v>
+        <v>14.512</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>7.58</v>
+        <v>7.583</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.48</v>
+        <v>1.477</v>
       </c>
       <c r="Z4" s="4" t="n">
         <v>14.24</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>6.44</v>
+        <v>6.437</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>5.85</v>
+        <v>5.846</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>6.85</v>
+        <v>6.854</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>9.140000000000001</v>
+        <v>9.144</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.77</v>
+        <v>0.766</v>
       </c>
       <c r="AF4" s="4" t="n">
         <v>26.58</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>3.98</v>
+        <v>3.982</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>9.109999999999999</v>
+        <v>9.111000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>14.32</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44930.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>13.43</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>21.39</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>3.74</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>12.82</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>2.18</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_249.xlsx
+++ b/DATA_goal/Junction_Flooding_249.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,103 +967,207 @@
         <v>44930.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>15.85</v>
+        <v>15.854</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>11.56</v>
+        <v>11.565</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.09</v>
+        <v>1.087</v>
       </c>
       <c r="E5" s="4" t="n">
         <v>34.45</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>27.95</v>
+        <v>27.951</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>12.48</v>
+        <v>12.476</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>46.67</v>
+        <v>46.673</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>19.2</v>
+        <v>19.197</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>8.460000000000001</v>
+        <v>8.456</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>12.46</v>
+        <v>12.456</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>13.82</v>
+        <v>13.824</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>14.55</v>
+        <v>14.549</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.98</v>
+        <v>3.985</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>12.41</v>
+        <v>12.407</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>17.59</v>
+        <v>17.592</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>10.55</v>
+        <v>10.552</v>
       </c>
       <c r="R5" s="4" t="n">
         <v>0.8</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.71</v>
+        <v>0.706</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>181.51</v>
+        <v>181.514</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>34.66</v>
+        <v>34.656</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>11.45</v>
+        <v>11.452</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>23.18</v>
+        <v>23.184</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>12.15</v>
+        <v>12.146</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.96</v>
+        <v>1.958</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>22.91</v>
+        <v>22.911</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>10.12</v>
+        <v>10.115</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>9.029999999999999</v>
+        <v>9.026999999999999</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>10.6</v>
+        <v>10.603</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>14.48</v>
+        <v>14.484</v>
       </c>
       <c r="AE5" s="4" t="n">
+        <v>0.553</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>42.402</v>
+      </c>
+      <c r="AG5" s="4" t="n">
+        <v>6.394</v>
+      </c>
+      <c r="AH5" s="4" t="n">
+        <v>14.317</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44930.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>13.43</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="R6" s="4" t="n">
         <v>0.55</v>
       </c>
-      <c r="AF5" s="4" t="n">
-        <v>42.4</v>
-      </c>
-      <c r="AG5" s="4" t="n">
-        <v>6.39</v>
-      </c>
-      <c r="AH5" s="4" t="n">
-        <v>14.32</v>
+      <c r="S6" s="4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>21.39</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>12.82</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>2.18</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_249.xlsx
+++ b/DATA_goal/Junction_Flooding_249.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,207 +967,103 @@
         <v>44930.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>15.854</v>
+        <v>15.85</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>11.565</v>
+        <v>11.56</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.087</v>
+        <v>1.09</v>
       </c>
       <c r="E5" s="4" t="n">
         <v>34.45</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>27.951</v>
+        <v>27.95</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>12.476</v>
+        <v>12.48</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>46.673</v>
+        <v>46.67</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>19.197</v>
+        <v>19.2</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>8.456</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>12.456</v>
+        <v>12.46</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>13.824</v>
+        <v>13.82</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>14.549</v>
+        <v>14.55</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.985</v>
+        <v>3.98</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>12.407</v>
+        <v>12.41</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>17.592</v>
+        <v>17.59</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>10.552</v>
+        <v>10.55</v>
       </c>
       <c r="R5" s="4" t="n">
         <v>0.8</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.706</v>
+        <v>0.71</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>181.514</v>
+        <v>181.51</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>34.656</v>
+        <v>34.66</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>11.452</v>
+        <v>11.45</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>23.184</v>
+        <v>23.18</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>12.146</v>
+        <v>12.15</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.958</v>
+        <v>1.96</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>22.911</v>
+        <v>22.91</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>10.115</v>
+        <v>10.12</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>9.026999999999999</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>10.603</v>
+        <v>10.6</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>14.484</v>
+        <v>14.48</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.553</v>
+        <v>0.55</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>42.402</v>
+        <v>42.4</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>6.394</v>
+        <v>6.39</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>14.317</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44930.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>13.43</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>21.39</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>3.74</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>12.82</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>2.18</v>
+        <v>14.32</v>
       </c>
     </row>
   </sheetData>
